--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>1798.963095210531</v>
+        <v>146.491518705782</v>
       </c>
       <c r="R2">
-        <v>16190.66785689478</v>
+        <v>1318.423668352038</v>
       </c>
       <c r="S2">
-        <v>0.02169893390317984</v>
+        <v>0.001945674574153811</v>
       </c>
       <c r="T2">
-        <v>0.02169893390317984</v>
+        <v>0.001945674574153811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>26874.02994498991</v>
+        <v>18532.20442566297</v>
       </c>
       <c r="R3">
-        <v>241866.2695049091</v>
+        <v>166789.8398309667</v>
       </c>
       <c r="S3">
-        <v>0.3241521746838101</v>
+        <v>0.246141478172893</v>
       </c>
       <c r="T3">
-        <v>0.3241521746838101</v>
+        <v>0.2461414781728929</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>3431.546488990989</v>
+        <v>3529.4906875076</v>
       </c>
       <c r="R4">
-        <v>30883.9184009189</v>
+        <v>31765.41618756839</v>
       </c>
       <c r="S4">
-        <v>0.04139101054854615</v>
+        <v>0.04687807424666383</v>
       </c>
       <c r="T4">
-        <v>0.04139101054854614</v>
+        <v>0.04687807424666382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>2346.225977492381</v>
+        <v>277.0548651614386</v>
       </c>
       <c r="R5">
-        <v>21116.03379743143</v>
+        <v>2493.493786452948</v>
       </c>
       <c r="S5">
-        <v>0.02829997043467569</v>
+        <v>0.003679793967273187</v>
       </c>
       <c r="T5">
-        <v>0.02829997043467569</v>
+        <v>0.003679793967273187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
-        <v>35049.38336128818</v>
+        <v>35049.38336128817</v>
       </c>
       <c r="R6">
-        <v>315444.4502515937</v>
+        <v>315444.4502515935</v>
       </c>
       <c r="S6">
-        <v>0.4227625652402831</v>
+        <v>0.4655197423599133</v>
       </c>
       <c r="T6">
-        <v>0.4227625652402829</v>
+        <v>0.4655197423599133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>4475.457855071346</v>
+        <v>6675.216252484488</v>
       </c>
       <c r="R7">
-        <v>40279.12069564212</v>
+        <v>60076.94627236039</v>
       </c>
       <c r="S7">
-        <v>0.05398257720917569</v>
+        <v>0.08865904766488526</v>
       </c>
       <c r="T7">
-        <v>0.05398257720917568</v>
+        <v>0.08865904766488525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>500.3879611860268</v>
+        <v>73.09357670991399</v>
       </c>
       <c r="R8">
-        <v>4503.491650674241</v>
+        <v>657.8421903892259</v>
       </c>
       <c r="S8">
-        <v>0.006035635374972396</v>
+        <v>0.000970816023991617</v>
       </c>
       <c r="T8">
-        <v>0.006035635374972395</v>
+        <v>0.0009708160239916168</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>7475.106681636508</v>
+        <v>9246.850041275044</v>
       </c>
       <c r="R9">
-        <v>67275.96013472858</v>
+        <v>83221.65037147538</v>
       </c>
       <c r="S9">
-        <v>0.09016407631478747</v>
+        <v>0.1228150351315312</v>
       </c>
       <c r="T9">
-        <v>0.09016407631478746</v>
+        <v>0.1228150351315312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>954.4968187022861</v>
+        <v>1761.078734069273</v>
       </c>
       <c r="R10">
-        <v>8590.471368320575</v>
+        <v>15849.70860662346</v>
       </c>
       <c r="S10">
-        <v>0.0115130562905697</v>
+        <v>0.02339033785869491</v>
       </c>
       <c r="T10">
-        <v>0.0115130562905697</v>
+        <v>0.0233903378586949</v>
       </c>
     </row>
   </sheetData>
